--- a/old/sousRelaxationVSGenFoam/Firstopenfoam.xlsx
+++ b/old/sousRelaxationVSGenFoam/Firstopenfoam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Documents\Poly\BWR\BWR_Project\driftFluxModel\sousRelaxationVSGenFoam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Documents\Poly\BWR\driftFluxModel\old\sousRelaxationVSGenFoam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18200926-C6D6-41B8-B663-C12D911BD166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA483B41-7268-4154-B05D-58CCD0E71DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" xr2:uid="{2CACC91A-E2E3-4550-BC32-44B59F458FF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CACC91A-E2E3-4550-BC32-44B59F458FF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -23070,13 +23070,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCEBB6B-6A90-44E4-A79C-7FC64694D92C}">
   <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -23154,7 +23154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -23180,7 +23180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -23284,7 +23284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -23310,7 +23310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -23492,7 +23492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -23544,7 +23544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -23648,7 +23648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -23778,7 +23778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -23830,7 +23830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -23882,7 +23882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>5459</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -24012,7 +24012,7 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -24064,7 +24064,7 @@
         <v>5467</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -24090,7 +24090,7 @@
         <v>5469</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>5471</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -24142,7 +24142,7 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -24168,7 +24168,7 @@
         <v>5475</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -24194,7 +24194,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -24220,7 +24220,7 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>183</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>193</v>
       </c>
@@ -24298,7 +24298,7 @@
         <v>5485</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>5487</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -24350,7 +24350,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>213</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -24428,7 +24428,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>223</v>
       </c>
@@ -24454,7 +24454,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>228</v>
       </c>
@@ -24480,7 +24480,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>233</v>
       </c>
@@ -24506,7 +24506,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>238</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>5503</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -24558,7 +24558,7 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>5507</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>253</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>5509</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>258</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>5511</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -24662,7 +24662,7 @@
         <v>5513</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>268</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>273</v>
       </c>
@@ -24714,7 +24714,7 @@
         <v>5517</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>278</v>
       </c>
@@ -24740,7 +24740,7 @@
         <v>5519</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>283</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>5521</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>288</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>5523</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>293</v>
       </c>
@@ -24818,7 +24818,7 @@
         <v>5525</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>298</v>
       </c>
@@ -24844,7 +24844,7 @@
         <v>5527</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>303</v>
       </c>
@@ -24870,7 +24870,7 @@
         <v>5529</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>308</v>
       </c>
@@ -24896,7 +24896,7 @@
         <v>5531</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>313</v>
       </c>
@@ -24922,7 +24922,7 @@
         <v>5533</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>318</v>
       </c>
@@ -24948,7 +24948,7 @@
         <v>5535</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>323</v>
       </c>
@@ -24974,7 +24974,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>328</v>
       </c>
@@ -25000,7 +25000,7 @@
         <v>5539</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>333</v>
       </c>
@@ -25026,7 +25026,7 @@
         <v>5541</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>338</v>
       </c>
@@ -25052,7 +25052,7 @@
         <v>5543</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>343</v>
       </c>
@@ -25078,7 +25078,7 @@
         <v>5545</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>348</v>
       </c>
@@ -25104,7 +25104,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>353</v>
       </c>
@@ -25130,7 +25130,7 @@
         <v>5549</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>363</v>
       </c>
@@ -25182,7 +25182,7 @@
         <v>5553</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>368</v>
       </c>
@@ -25208,7 +25208,7 @@
         <v>5555</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>373</v>
       </c>
@@ -25234,7 +25234,7 @@
         <v>5557</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>378</v>
       </c>
@@ -25260,7 +25260,7 @@
         <v>5559</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>383</v>
       </c>
@@ -25286,7 +25286,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>5563</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>393</v>
       </c>
@@ -25338,7 +25338,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>398</v>
       </c>
@@ -25364,7 +25364,7 @@
         <v>5567</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>403</v>
       </c>
@@ -25390,7 +25390,7 @@
         <v>5569</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>408</v>
       </c>
@@ -25416,7 +25416,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>413</v>
       </c>
@@ -25442,7 +25442,7 @@
         <v>5573</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>418</v>
       </c>
@@ -25468,7 +25468,7 @@
         <v>5575</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>423</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>428</v>
       </c>
@@ -25520,7 +25520,7 @@
         <v>5579</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>433</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>5581</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>438</v>
       </c>
@@ -25572,7 +25572,7 @@
         <v>5583</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>443</v>
       </c>
@@ -25598,7 +25598,7 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>448</v>
       </c>
@@ -25624,7 +25624,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>453</v>
       </c>
@@ -25650,7 +25650,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>458</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>5591</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>463</v>
       </c>
@@ -25702,7 +25702,7 @@
         <v>5593</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>468</v>
       </c>
@@ -25728,7 +25728,7 @@
         <v>5595</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>473</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>5597</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>478</v>
       </c>
@@ -25780,7 +25780,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>483</v>
       </c>
@@ -25806,7 +25806,7 @@
         <v>5601</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>488</v>
       </c>
@@ -25832,7 +25832,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>493</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>5605</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>498</v>
       </c>
@@ -25884,7 +25884,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>503</v>
       </c>
@@ -25910,7 +25910,7 @@
         <v>5609</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>508</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>5611</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>513</v>
       </c>
@@ -25962,7 +25962,7 @@
         <v>5613</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>518</v>
       </c>
@@ -25988,7 +25988,7 @@
         <v>5615</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>523</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>5617</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>528</v>
       </c>
@@ -26040,7 +26040,7 @@
         <v>5619</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>533</v>
       </c>
@@ -26066,7 +26066,7 @@
         <v>5621</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>538</v>
       </c>
@@ -26092,7 +26092,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>543</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>548</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>5627</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>553</v>
       </c>
@@ -26170,7 +26170,7 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>558</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>5631</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>563</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>5633</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>568</v>
       </c>
@@ -26248,7 +26248,7 @@
         <v>5635</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>573</v>
       </c>
@@ -26274,7 +26274,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>578</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>5639</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>583</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>5641</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>588</v>
       </c>
@@ -26352,7 +26352,7 @@
         <v>5643</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>593</v>
       </c>
@@ -26378,7 +26378,7 @@
         <v>5645</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>598</v>
       </c>
@@ -26404,7 +26404,7 @@
         <v>5647</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>603</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>608</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>5651</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>613</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>5653</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>618</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>5655</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>623</v>
       </c>
@@ -26534,7 +26534,7 @@
         <v>5657</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>628</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>5659</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>633</v>
       </c>
@@ -26586,7 +26586,7 @@
         <v>5661</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>638</v>
       </c>
@@ -26612,7 +26612,7 @@
         <v>5663</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>643</v>
       </c>
@@ -26638,7 +26638,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>648</v>
       </c>
@@ -26664,7 +26664,7 @@
         <v>5667</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>653</v>
       </c>
@@ -26690,7 +26690,7 @@
         <v>5669</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>658</v>
       </c>
@@ -26716,7 +26716,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>663</v>
       </c>
@@ -26742,7 +26742,7 @@
         <v>5673</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>668</v>
       </c>
@@ -26768,7 +26768,7 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>673</v>
       </c>
@@ -26794,7 +26794,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>678</v>
       </c>
@@ -26820,7 +26820,7 @@
         <v>5679</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>683</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>5681</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>688</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>5683</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>693</v>
       </c>
@@ -26898,7 +26898,7 @@
         <v>5685</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>698</v>
       </c>
@@ -26924,7 +26924,7 @@
         <v>5687</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>703</v>
       </c>
@@ -26950,7 +26950,7 @@
         <v>5689</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>708</v>
       </c>
@@ -26976,7 +26976,7 @@
         <v>5691</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>713</v>
       </c>
@@ -27002,7 +27002,7 @@
         <v>5693</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>718</v>
       </c>
@@ -27028,7 +27028,7 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>723</v>
       </c>
@@ -27054,7 +27054,7 @@
         <v>5697</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>728</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>733</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>5701</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>738</v>
       </c>
@@ -27132,7 +27132,7 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>743</v>
       </c>
@@ -27158,7 +27158,7 @@
         <v>5705</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>748</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>753</v>
       </c>
@@ -27210,7 +27210,7 @@
         <v>5709</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>758</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>5711</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>763</v>
       </c>
@@ -27262,7 +27262,7 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>768</v>
       </c>
@@ -27288,7 +27288,7 @@
         <v>5715</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>773</v>
       </c>
@@ -27314,7 +27314,7 @@
         <v>5717</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>778</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>5719</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>783</v>
       </c>
@@ -27366,7 +27366,7 @@
         <v>5721</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>788</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>5723</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>793</v>
       </c>
@@ -27418,7 +27418,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>798</v>
       </c>
@@ -27444,7 +27444,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>803</v>
       </c>
@@ -27470,7 +27470,7 @@
         <v>5729</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>808</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>5731</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>813</v>
       </c>
@@ -27522,7 +27522,7 @@
         <v>5733</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>818</v>
       </c>
@@ -27548,7 +27548,7 @@
         <v>5735</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>823</v>
       </c>
@@ -27574,7 +27574,7 @@
         <v>5737</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>828</v>
       </c>
@@ -27600,7 +27600,7 @@
         <v>5739</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>833</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>5741</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>838</v>
       </c>
@@ -27652,7 +27652,7 @@
         <v>5743</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>843</v>
       </c>
@@ -27678,7 +27678,7 @@
         <v>5745</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>848</v>
       </c>
@@ -27704,7 +27704,7 @@
         <v>5747</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>853</v>
       </c>
@@ -27730,7 +27730,7 @@
         <v>5749</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>858</v>
       </c>
@@ -27756,7 +27756,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>863</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>5753</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>868</v>
       </c>
@@ -27808,7 +27808,7 @@
         <v>5755</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>873</v>
       </c>
@@ -27834,7 +27834,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>878</v>
       </c>
@@ -27860,7 +27860,7 @@
         <v>5759</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>883</v>
       </c>
@@ -27886,7 +27886,7 @@
         <v>5761</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>888</v>
       </c>
@@ -27912,7 +27912,7 @@
         <v>5763</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>893</v>
       </c>
@@ -27938,7 +27938,7 @@
         <v>5765</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>898</v>
       </c>
@@ -27964,7 +27964,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>903</v>
       </c>
@@ -27990,7 +27990,7 @@
         <v>5769</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>908</v>
       </c>
@@ -28016,7 +28016,7 @@
         <v>5771</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>913</v>
       </c>
@@ -28042,7 +28042,7 @@
         <v>5773</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>918</v>
       </c>
@@ -28068,7 +28068,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>923</v>
       </c>
@@ -28094,7 +28094,7 @@
         <v>5777</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>928</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>5779</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>933</v>
       </c>
@@ -28146,7 +28146,7 @@
         <v>5781</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>938</v>
       </c>
@@ -28172,7 +28172,7 @@
         <v>5783</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>943</v>
       </c>
@@ -28198,7 +28198,7 @@
         <v>5785</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>948</v>
       </c>
@@ -28224,7 +28224,7 @@
         <v>5787</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>953</v>
       </c>
@@ -28250,7 +28250,7 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>958</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>5791</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>963</v>
       </c>
@@ -28302,7 +28302,7 @@
         <v>5793</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>968</v>
       </c>
@@ -28328,7 +28328,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>973</v>
       </c>
@@ -28354,7 +28354,7 @@
         <v>5797</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>978</v>
       </c>
@@ -28380,7 +28380,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>983</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>988</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>993</v>
       </c>
@@ -28458,7 +28458,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>998</v>
       </c>
@@ -28484,7 +28484,7 @@
         <v>5807</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1003</v>
       </c>
@@ -28510,7 +28510,7 @@
         <v>5809</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1008</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>5811</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1013</v>
       </c>
@@ -28562,7 +28562,7 @@
         <v>5813</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1018</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1023</v>
       </c>
@@ -28614,7 +28614,7 @@
         <v>5817</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1028</v>
       </c>
@@ -28640,7 +28640,7 @@
         <v>5819</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1033</v>
       </c>
@@ -28666,7 +28666,7 @@
         <v>5821</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1038</v>
       </c>
@@ -28692,7 +28692,7 @@
         <v>5823</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1043</v>
       </c>
@@ -28718,7 +28718,7 @@
         <v>5825</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1048</v>
       </c>
@@ -28744,7 +28744,7 @@
         <v>5827</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1053</v>
       </c>
@@ -28770,7 +28770,7 @@
         <v>5829</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1058</v>
       </c>
@@ -28796,7 +28796,7 @@
         <v>5831</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1063</v>
       </c>
@@ -28822,7 +28822,7 @@
         <v>5833</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1068</v>
       </c>
@@ -28848,7 +28848,7 @@
         <v>5835</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1073</v>
       </c>
@@ -28874,7 +28874,7 @@
         <v>5837</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1078</v>
       </c>
@@ -28900,7 +28900,7 @@
         <v>5839</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1083</v>
       </c>
@@ -28926,7 +28926,7 @@
         <v>5841</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1088</v>
       </c>
@@ -28952,7 +28952,7 @@
         <v>5843</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1093</v>
       </c>
@@ -28978,7 +28978,7 @@
         <v>5845</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1098</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>5847</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1103</v>
       </c>
@@ -29030,7 +29030,7 @@
         <v>5849</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1108</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>5851</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1113</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>5853</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1118</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>5855</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1123</v>
       </c>
@@ -29134,7 +29134,7 @@
         <v>5857</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1128</v>
       </c>
@@ -29160,7 +29160,7 @@
         <v>5859</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1133</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>5861</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1138</v>
       </c>
@@ -29212,7 +29212,7 @@
         <v>5863</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1143</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1148</v>
       </c>
@@ -29264,7 +29264,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1153</v>
       </c>
@@ -29290,7 +29290,7 @@
         <v>5869</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1158</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>5871</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1163</v>
       </c>
@@ -29342,7 +29342,7 @@
         <v>5873</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1168</v>
       </c>
@@ -29368,7 +29368,7 @@
         <v>5875</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1173</v>
       </c>
@@ -29394,7 +29394,7 @@
         <v>5877</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1178</v>
       </c>
@@ -29420,7 +29420,7 @@
         <v>5879</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1183</v>
       </c>
@@ -29446,7 +29446,7 @@
         <v>5881</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1188</v>
       </c>
@@ -29472,7 +29472,7 @@
         <v>5883</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1193</v>
       </c>
@@ -29498,7 +29498,7 @@
         <v>5885</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1198</v>
       </c>
@@ -29524,7 +29524,7 @@
         <v>5887</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1203</v>
       </c>
@@ -29550,7 +29550,7 @@
         <v>5889</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1208</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>5891</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1213</v>
       </c>
@@ -29602,7 +29602,7 @@
         <v>5893</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1218</v>
       </c>
@@ -29628,7 +29628,7 @@
         <v>5895</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1223</v>
       </c>
@@ -29654,7 +29654,7 @@
         <v>5897</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1229</v>
       </c>
@@ -29680,7 +29680,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1235</v>
       </c>
@@ -29706,7 +29706,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1241</v>
       </c>
@@ -29732,7 +29732,7 @@
         <v>5903</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1246</v>
       </c>
@@ -29758,7 +29758,7 @@
         <v>5905</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1251</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>5907</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1256</v>
       </c>
@@ -29810,7 +29810,7 @@
         <v>5909</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1261</v>
       </c>
@@ -29836,7 +29836,7 @@
         <v>5911</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1267</v>
       </c>
@@ -29862,7 +29862,7 @@
         <v>5913</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1273</v>
       </c>
@@ -29888,7 +29888,7 @@
         <v>5915</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1279</v>
       </c>
@@ -29914,7 +29914,7 @@
         <v>5917</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1284</v>
       </c>
@@ -29940,7 +29940,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1290</v>
       </c>
@@ -29966,7 +29966,7 @@
         <v>5921</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1295</v>
       </c>
@@ -29992,7 +29992,7 @@
         <v>5923</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1300</v>
       </c>
@@ -30018,7 +30018,7 @@
         <v>5925</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1306</v>
       </c>
@@ -30044,7 +30044,7 @@
         <v>5927</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1312</v>
       </c>
@@ -30070,7 +30070,7 @@
         <v>5929</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1318</v>
       </c>
@@ -30096,7 +30096,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1324</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>5933</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1330</v>
       </c>
@@ -30148,7 +30148,7 @@
         <v>5935</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1335</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>5937</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1340</v>
       </c>
@@ -30200,7 +30200,7 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1346</v>
       </c>
@@ -30226,7 +30226,7 @@
         <v>5941</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1352</v>
       </c>
@@ -30252,7 +30252,7 @@
         <v>5943</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1358</v>
       </c>
@@ -30278,7 +30278,7 @@
         <v>5945</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1364</v>
       </c>
@@ -30304,7 +30304,7 @@
         <v>5947</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1369</v>
       </c>
@@ -30330,7 +30330,7 @@
         <v>5949</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1374</v>
       </c>
@@ -30356,7 +30356,7 @@
         <v>5951</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1379</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>5953</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1384</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>5955</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1390</v>
       </c>
@@ -30434,7 +30434,7 @@
         <v>5957</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1396</v>
       </c>
@@ -30460,7 +30460,7 @@
         <v>5959</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1402</v>
       </c>
@@ -30486,7 +30486,7 @@
         <v>5961</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1407</v>
       </c>
@@ -30512,7 +30512,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1412</v>
       </c>
@@ -30538,7 +30538,7 @@
         <v>5965</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1417</v>
       </c>
@@ -30564,7 +30564,7 @@
         <v>5967</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1422</v>
       </c>
@@ -30590,7 +30590,7 @@
         <v>5969</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1428</v>
       </c>
@@ -30616,7 +30616,7 @@
         <v>5971</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1434</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1440</v>
       </c>
@@ -30668,7 +30668,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1446</v>
       </c>
@@ -30694,7 +30694,7 @@
         <v>5977</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1452</v>
       </c>
@@ -30720,7 +30720,7 @@
         <v>5979</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1457</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>5981</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1462</v>
       </c>
@@ -30772,7 +30772,7 @@
         <v>5983</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1468</v>
       </c>
@@ -30798,7 +30798,7 @@
         <v>5985</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1474</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>5987</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1480</v>
       </c>
@@ -30850,7 +30850,7 @@
         <v>5989</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1486</v>
       </c>
@@ -30876,7 +30876,7 @@
         <v>5991</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1492</v>
       </c>
@@ -30902,7 +30902,7 @@
         <v>5993</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1498</v>
       </c>
@@ -30928,7 +30928,7 @@
         <v>5995</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1503</v>
       </c>
@@ -30954,7 +30954,7 @@
         <v>5997</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1508</v>
       </c>
@@ -30980,7 +30980,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1514</v>
       </c>
@@ -31006,7 +31006,7 @@
         <v>6001</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1520</v>
       </c>
@@ -31032,7 +31032,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1526</v>
       </c>
@@ -31058,7 +31058,7 @@
         <v>6005</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1531</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>6007</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1537</v>
       </c>
@@ -31110,7 +31110,7 @@
         <v>6009</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1542</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>6011</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1547</v>
       </c>
@@ -31162,7 +31162,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1553</v>
       </c>
@@ -31188,7 +31188,7 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1559</v>
       </c>
@@ -31214,7 +31214,7 @@
         <v>6017</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1565</v>
       </c>
@@ -31240,7 +31240,7 @@
         <v>6019</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1570</v>
       </c>
@@ -31266,7 +31266,7 @@
         <v>6021</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1576</v>
       </c>
@@ -31292,7 +31292,7 @@
         <v>6023</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1582</v>
       </c>
@@ -31318,7 +31318,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1588</v>
       </c>
@@ -31344,7 +31344,7 @@
         <v>6027</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1594</v>
       </c>
@@ -31370,7 +31370,7 @@
         <v>6029</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1600</v>
       </c>
@@ -31396,7 +31396,7 @@
         <v>6031</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1605</v>
       </c>
@@ -31422,7 +31422,7 @@
         <v>6033</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1611</v>
       </c>
@@ -31448,7 +31448,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1617</v>
       </c>
@@ -31474,7 +31474,7 @@
         <v>6037</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1623</v>
       </c>
@@ -31500,7 +31500,7 @@
         <v>6039</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1629</v>
       </c>
@@ -31526,7 +31526,7 @@
         <v>6041</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1635</v>
       </c>
@@ -31552,7 +31552,7 @@
         <v>6043</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1640</v>
       </c>
@@ -31578,7 +31578,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1645</v>
       </c>
@@ -31604,7 +31604,7 @@
         <v>6047</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1651</v>
       </c>
@@ -31630,7 +31630,7 @@
         <v>6049</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1657</v>
       </c>
@@ -31656,7 +31656,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1662</v>
       </c>
@@ -31682,7 +31682,7 @@
         <v>6053</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1668</v>
       </c>
@@ -31708,7 +31708,7 @@
         <v>6055</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1674</v>
       </c>
@@ -31734,7 +31734,7 @@
         <v>6057</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1680</v>
       </c>
@@ -31760,7 +31760,7 @@
         <v>6059</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1685</v>
       </c>
@@ -31786,7 +31786,7 @@
         <v>6061</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1691</v>
       </c>
@@ -31812,7 +31812,7 @@
         <v>6063</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1696</v>
       </c>
@@ -31838,7 +31838,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1701</v>
       </c>
@@ -31864,7 +31864,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1707</v>
       </c>
@@ -31890,7 +31890,7 @@
         <v>6069</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1713</v>
       </c>
@@ -31916,7 +31916,7 @@
         <v>6071</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1718</v>
       </c>
@@ -31942,7 +31942,7 @@
         <v>6073</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1724</v>
       </c>
@@ -31968,7 +31968,7 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1730</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1736</v>
       </c>
@@ -32020,7 +32020,7 @@
         <v>6079</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1741</v>
       </c>
@@ -32046,7 +32046,7 @@
         <v>6081</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1747</v>
       </c>
@@ -32072,7 +32072,7 @@
         <v>6083</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1753</v>
       </c>
@@ -32098,7 +32098,7 @@
         <v>6085</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1758</v>
       </c>
@@ -32124,7 +32124,7 @@
         <v>6087</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1764</v>
       </c>
@@ -32150,7 +32150,7 @@
         <v>6089</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1770</v>
       </c>
@@ -32176,7 +32176,7 @@
         <v>6091</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1776</v>
       </c>
@@ -32202,7 +32202,7 @@
         <v>6093</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1782</v>
       </c>
@@ -32228,7 +32228,7 @@
         <v>6095</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1788</v>
       </c>
@@ -32254,7 +32254,7 @@
         <v>6097</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1793</v>
       </c>
@@ -32280,7 +32280,7 @@
         <v>6099</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1798</v>
       </c>
@@ -32306,7 +32306,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1804</v>
       </c>
@@ -32332,7 +32332,7 @@
         <v>6103</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1810</v>
       </c>
@@ -32358,7 +32358,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1815</v>
       </c>
@@ -32384,7 +32384,7 @@
         <v>6107</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1821</v>
       </c>
@@ -32410,7 +32410,7 @@
         <v>6109</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1827</v>
       </c>
@@ -32436,7 +32436,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1833</v>
       </c>
@@ -32462,7 +32462,7 @@
         <v>6113</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1838</v>
       </c>
@@ -32488,7 +32488,7 @@
         <v>6115</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1844</v>
       </c>
@@ -32514,7 +32514,7 @@
         <v>6117</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1850</v>
       </c>
@@ -32540,7 +32540,7 @@
         <v>6119</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1855</v>
       </c>
@@ -32566,7 +32566,7 @@
         <v>6121</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1860</v>
       </c>
@@ -32592,7 +32592,7 @@
         <v>6123</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1866</v>
       </c>
@@ -32618,7 +32618,7 @@
         <v>6125</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1871</v>
       </c>
@@ -32644,7 +32644,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1877</v>
       </c>
@@ -32670,7 +32670,7 @@
         <v>6129</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1883</v>
       </c>
@@ -32696,7 +32696,7 @@
         <v>6131</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1888</v>
       </c>
@@ -32722,7 +32722,7 @@
         <v>6133</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1893</v>
       </c>
@@ -32748,7 +32748,7 @@
         <v>6135</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1899</v>
       </c>
@@ -32774,7 +32774,7 @@
         <v>6137</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1905</v>
       </c>
@@ -32800,7 +32800,7 @@
         <v>6139</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1910</v>
       </c>
@@ -32826,7 +32826,7 @@
         <v>6141</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1915</v>
       </c>
@@ -32852,7 +32852,7 @@
         <v>6143</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1921</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>6145</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1927</v>
       </c>
@@ -32904,7 +32904,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1933</v>
       </c>
@@ -32930,7 +32930,7 @@
         <v>6149</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1939</v>
       </c>
@@ -32956,7 +32956,7 @@
         <v>6151</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1945</v>
       </c>
@@ -32982,7 +32982,7 @@
         <v>6153</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1950</v>
       </c>
@@ -33008,7 +33008,7 @@
         <v>6155</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1956</v>
       </c>
@@ -33034,7 +33034,7 @@
         <v>6157</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1961</v>
       </c>
@@ -33060,7 +33060,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1966</v>
       </c>
@@ -33086,7 +33086,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1971</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>6163</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1976</v>
       </c>
@@ -33138,7 +33138,7 @@
         <v>6165</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1981</v>
       </c>
@@ -33164,7 +33164,7 @@
         <v>6167</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1987</v>
       </c>
@@ -33190,7 +33190,7 @@
         <v>6169</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1993</v>
       </c>
@@ -33216,7 +33216,7 @@
         <v>6171</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1999</v>
       </c>
@@ -33242,7 +33242,7 @@
         <v>6173</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>2005</v>
       </c>
@@ -33268,7 +33268,7 @@
         <v>6175</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>2011</v>
       </c>
@@ -33294,7 +33294,7 @@
         <v>6177</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>2016</v>
       </c>
@@ -33320,7 +33320,7 @@
         <v>6179</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>2022</v>
       </c>
@@ -33346,7 +33346,7 @@
         <v>6181</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>2027</v>
       </c>
@@ -33372,7 +33372,7 @@
         <v>6183</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>2032</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>6185</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>2037</v>
       </c>
@@ -33424,7 +33424,7 @@
         <v>6187</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>2042</v>
       </c>
@@ -33450,7 +33450,7 @@
         <v>6189</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>2047</v>
       </c>
@@ -33476,7 +33476,7 @@
         <v>6191</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>2052</v>
       </c>
@@ -33502,7 +33502,7 @@
         <v>6193</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>2058</v>
       </c>
@@ -33528,7 +33528,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>2064</v>
       </c>
@@ -33554,7 +33554,7 @@
         <v>6197</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>2070</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>6199</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>2075</v>
       </c>
@@ -33606,7 +33606,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>2081</v>
       </c>
@@ -33632,7 +33632,7 @@
         <v>6203</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>2087</v>
       </c>
@@ -33658,7 +33658,7 @@
         <v>6205</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>2092</v>
       </c>
@@ -33684,7 +33684,7 @@
         <v>6207</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>2098</v>
       </c>
@@ -33710,7 +33710,7 @@
         <v>6209</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>2104</v>
       </c>
@@ -33736,7 +33736,7 @@
         <v>6211</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>2109</v>
       </c>
@@ -33762,7 +33762,7 @@
         <v>6213</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>2115</v>
       </c>
@@ -33788,7 +33788,7 @@
         <v>6215</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>2121</v>
       </c>
@@ -33814,7 +33814,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>2126</v>
       </c>
@@ -33840,7 +33840,7 @@
         <v>6219</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>2132</v>
       </c>
@@ -33866,7 +33866,7 @@
         <v>6221</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>2138</v>
       </c>
@@ -33892,7 +33892,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>2143</v>
       </c>
@@ -33918,7 +33918,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>2149</v>
       </c>
@@ -33944,7 +33944,7 @@
         <v>6227</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>2155</v>
       </c>
@@ -33970,7 +33970,7 @@
         <v>6229</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>2161</v>
       </c>
@@ -33996,7 +33996,7 @@
         <v>6231</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>2167</v>
       </c>
@@ -34022,7 +34022,7 @@
         <v>6233</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>2173</v>
       </c>
@@ -34048,7 +34048,7 @@
         <v>6235</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>2179</v>
       </c>
@@ -34074,7 +34074,7 @@
         <v>6237</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>2185</v>
       </c>
@@ -34100,7 +34100,7 @@
         <v>6239</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>2191</v>
       </c>
@@ -34126,7 +34126,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>2196</v>
       </c>
@@ -34152,7 +34152,7 @@
         <v>6243</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>2202</v>
       </c>
@@ -34178,7 +34178,7 @@
         <v>6245</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>2208</v>
       </c>
@@ -34204,7 +34204,7 @@
         <v>6247</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>2213</v>
       </c>
@@ -34230,7 +34230,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>2219</v>
       </c>
@@ -34256,7 +34256,7 @@
         <v>6251</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>2225</v>
       </c>
@@ -34282,7 +34282,7 @@
         <v>6253</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>2230</v>
       </c>
@@ -34308,7 +34308,7 @@
         <v>6255</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>2236</v>
       </c>
@@ -34334,7 +34334,7 @@
         <v>6257</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>2242</v>
       </c>
@@ -34360,7 +34360,7 @@
         <v>6259</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>2247</v>
       </c>
@@ -34386,7 +34386,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>2253</v>
       </c>
@@ -34412,7 +34412,7 @@
         <v>6263</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>2259</v>
       </c>
@@ -34438,7 +34438,7 @@
         <v>6265</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>2264</v>
       </c>
@@ -34464,7 +34464,7 @@
         <v>6267</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>2270</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>6269</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>2276</v>
       </c>
@@ -34516,7 +34516,7 @@
         <v>6271</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>2282</v>
       </c>
@@ -34542,7 +34542,7 @@
         <v>6273</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>2288</v>
       </c>
@@ -34568,7 +34568,7 @@
         <v>6275</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>2294</v>
       </c>
@@ -34594,7 +34594,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>2299</v>
       </c>
@@ -34620,7 +34620,7 @@
         <v>6279</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>2305</v>
       </c>
@@ -34646,7 +34646,7 @@
         <v>6281</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>2311</v>
       </c>
@@ -34672,7 +34672,7 @@
         <v>6283</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>2317</v>
       </c>
@@ -34698,7 +34698,7 @@
         <v>6285</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>2323</v>
       </c>
@@ -34724,7 +34724,7 @@
         <v>6287</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>2329</v>
       </c>
@@ -34750,7 +34750,7 @@
         <v>6289</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>2335</v>
       </c>
@@ -34776,7 +34776,7 @@
         <v>6291</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>2341</v>
       </c>
@@ -34802,7 +34802,7 @@
         <v>6293</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>2347</v>
       </c>
@@ -34828,7 +34828,7 @@
         <v>6295</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>2352</v>
       </c>
@@ -34854,7 +34854,7 @@
         <v>6297</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>2358</v>
       </c>
@@ -34880,7 +34880,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>2364</v>
       </c>
@@ -34906,7 +34906,7 @@
         <v>6301</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>2370</v>
       </c>
@@ -34932,7 +34932,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>2376</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>2382</v>
       </c>
@@ -34984,7 +34984,7 @@
         <v>6307</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>2387</v>
       </c>
@@ -35010,7 +35010,7 @@
         <v>6309</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>2392</v>
       </c>
@@ -35036,7 +35036,7 @@
         <v>6311</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>2398</v>
       </c>
@@ -35062,7 +35062,7 @@
         <v>6313</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>2404</v>
       </c>
@@ -35088,7 +35088,7 @@
         <v>6315</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>2410</v>
       </c>
@@ -35114,7 +35114,7 @@
         <v>6317</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>2416</v>
       </c>
@@ -35140,7 +35140,7 @@
         <v>6319</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>2422</v>
       </c>
@@ -35166,7 +35166,7 @@
         <v>6321</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>2428</v>
       </c>
@@ -35192,7 +35192,7 @@
         <v>6323</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>2434</v>
       </c>
@@ -35218,7 +35218,7 @@
         <v>6325</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>2439</v>
       </c>
@@ -35244,7 +35244,7 @@
         <v>6327</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>2444</v>
       </c>
@@ -35270,7 +35270,7 @@
         <v>6329</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>2450</v>
       </c>
@@ -35296,7 +35296,7 @@
         <v>6331</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>2456</v>
       </c>
@@ -35322,7 +35322,7 @@
         <v>6333</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>2462</v>
       </c>
@@ -35348,7 +35348,7 @@
         <v>6335</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>2468</v>
       </c>
@@ -35374,7 +35374,7 @@
         <v>6337</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>2474</v>
       </c>
@@ -35400,7 +35400,7 @@
         <v>6339</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>2480</v>
       </c>
@@ -35426,7 +35426,7 @@
         <v>6341</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>2486</v>
       </c>
@@ -35452,7 +35452,7 @@
         <v>6343</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>2491</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>6345</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>2496</v>
       </c>
@@ -35504,7 +35504,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>2502</v>
       </c>
@@ -35530,7 +35530,7 @@
         <v>6349</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>2508</v>
       </c>
@@ -35556,7 +35556,7 @@
         <v>6351</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>2514</v>
       </c>
@@ -35582,7 +35582,7 @@
         <v>6353</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>2520</v>
       </c>
@@ -35608,7 +35608,7 @@
         <v>6355</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>2525</v>
       </c>
@@ -35634,7 +35634,7 @@
         <v>6357</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>2531</v>
       </c>
@@ -35660,7 +35660,7 @@
         <v>6359</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>2537</v>
       </c>
@@ -35686,7 +35686,7 @@
         <v>6361</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>2543</v>
       </c>
@@ -35712,7 +35712,7 @@
         <v>6363</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>2549</v>
       </c>
@@ -35738,7 +35738,7 @@
         <v>6365</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>2555</v>
       </c>
@@ -35764,7 +35764,7 @@
         <v>6367</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>2561</v>
       </c>
@@ -35790,7 +35790,7 @@
         <v>6369</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>2567</v>
       </c>
@@ -35816,7 +35816,7 @@
         <v>6371</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>2573</v>
       </c>
@@ -35842,7 +35842,7 @@
         <v>6373</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>2579</v>
       </c>
@@ -35868,7 +35868,7 @@
         <v>6375</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>2585</v>
       </c>
@@ -35894,7 +35894,7 @@
         <v>6377</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>2591</v>
       </c>
@@ -35920,7 +35920,7 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>2596</v>
       </c>
@@ -35946,7 +35946,7 @@
         <v>6381</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>2602</v>
       </c>
@@ -35972,7 +35972,7 @@
         <v>6383</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>2608</v>
       </c>
@@ -35998,7 +35998,7 @@
         <v>6385</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>2613</v>
       </c>
@@ -36024,7 +36024,7 @@
         <v>6387</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>2619</v>
       </c>
@@ -36050,7 +36050,7 @@
         <v>6389</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>2625</v>
       </c>
@@ -36076,7 +36076,7 @@
         <v>6391</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>2631</v>
       </c>
@@ -36102,7 +36102,7 @@
         <v>6393</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>2637</v>
       </c>
@@ -36128,7 +36128,7 @@
         <v>6395</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>2643</v>
       </c>
@@ -36154,7 +36154,7 @@
         <v>6397</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>2648</v>
       </c>
@@ -36180,7 +36180,7 @@
         <v>6399</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>2654</v>
       </c>
@@ -36206,7 +36206,7 @@
         <v>6401</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>2660</v>
       </c>
@@ -36232,7 +36232,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>2666</v>
       </c>
@@ -36258,7 +36258,7 @@
         <v>6405</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>2672</v>
       </c>
@@ -36284,7 +36284,7 @@
         <v>6407</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>2677</v>
       </c>
@@ -36310,7 +36310,7 @@
         <v>6409</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>2683</v>
       </c>
@@ -36336,7 +36336,7 @@
         <v>6411</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>2689</v>
       </c>
@@ -36362,7 +36362,7 @@
         <v>6413</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>2695</v>
       </c>
@@ -36388,7 +36388,7 @@
         <v>6415</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>2700</v>
       </c>
@@ -36414,7 +36414,7 @@
         <v>6417</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>2706</v>
       </c>
@@ -36440,7 +36440,7 @@
         <v>6419</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>2712</v>
       </c>
@@ -36466,7 +36466,7 @@
         <v>6421</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>2718</v>
       </c>
@@ -36492,7 +36492,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>2724</v>
       </c>
@@ -36518,7 +36518,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>2729</v>
       </c>
@@ -36544,7 +36544,7 @@
         <v>6427</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>2735</v>
       </c>
@@ -36570,7 +36570,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>2741</v>
       </c>
@@ -36596,7 +36596,7 @@
         <v>6431</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>2747</v>
       </c>
@@ -36622,7 +36622,7 @@
         <v>6433</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>2752</v>
       </c>
@@ -36648,7 +36648,7 @@
         <v>6435</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>2758</v>
       </c>
@@ -36674,7 +36674,7 @@
         <v>6437</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>2764</v>
       </c>
@@ -36700,7 +36700,7 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>2770</v>
       </c>
@@ -36726,7 +36726,7 @@
         <v>6441</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>2775</v>
       </c>
@@ -36752,7 +36752,7 @@
         <v>6443</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>2781</v>
       </c>
@@ -36778,7 +36778,7 @@
         <v>6445</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>2787</v>
       </c>
@@ -36804,7 +36804,7 @@
         <v>6447</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>2793</v>
       </c>
@@ -36830,7 +36830,7 @@
         <v>6449</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>2799</v>
       </c>
@@ -36856,7 +36856,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>2805</v>
       </c>
@@ -36882,7 +36882,7 @@
         <v>6453</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>2811</v>
       </c>
@@ -36908,7 +36908,7 @@
         <v>6455</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>2817</v>
       </c>
@@ -36934,7 +36934,7 @@
         <v>6457</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>2823</v>
       </c>
@@ -36960,7 +36960,7 @@
         <v>6459</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>2829</v>
       </c>
@@ -36986,7 +36986,7 @@
         <v>6461</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>2834</v>
       </c>
@@ -37012,7 +37012,7 @@
         <v>6463</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>2840</v>
       </c>
@@ -37038,7 +37038,7 @@
         <v>6465</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>2846</v>
       </c>
@@ -37064,7 +37064,7 @@
         <v>6467</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>2852</v>
       </c>
@@ -37090,7 +37090,7 @@
         <v>6469</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>2858</v>
       </c>
@@ -37116,7 +37116,7 @@
         <v>6471</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>2864</v>
       </c>
@@ -37142,7 +37142,7 @@
         <v>6473</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>2870</v>
       </c>
@@ -37168,7 +37168,7 @@
         <v>6475</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>2876</v>
       </c>
@@ -37194,7 +37194,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>2882</v>
       </c>
@@ -37220,7 +37220,7 @@
         <v>6479</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>2887</v>
       </c>
@@ -37246,7 +37246,7 @@
         <v>6481</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>2893</v>
       </c>
@@ -37272,7 +37272,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>2899</v>
       </c>
@@ -37298,7 +37298,7 @@
         <v>6485</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>2905</v>
       </c>
@@ -37324,7 +37324,7 @@
         <v>6487</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>2911</v>
       </c>
@@ -37350,7 +37350,7 @@
         <v>6489</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>2916</v>
       </c>
@@ -37376,7 +37376,7 @@
         <v>6491</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>2922</v>
       </c>
@@ -37402,7 +37402,7 @@
         <v>6493</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>2928</v>
       </c>
@@ -37428,7 +37428,7 @@
         <v>6495</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>2934</v>
       </c>
@@ -37454,7 +37454,7 @@
         <v>6497</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>2940</v>
       </c>
@@ -37480,7 +37480,7 @@
         <v>6499</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>2945</v>
       </c>
@@ -37506,7 +37506,7 @@
         <v>6501</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>2951</v>
       </c>
@@ -37532,7 +37532,7 @@
         <v>6503</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>2957</v>
       </c>
@@ -37558,7 +37558,7 @@
         <v>6505</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>2963</v>
       </c>
@@ -37584,7 +37584,7 @@
         <v>6507</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>2968</v>
       </c>
@@ -37610,7 +37610,7 @@
         <v>6509</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>2974</v>
       </c>
@@ -37636,7 +37636,7 @@
         <v>6511</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>2980</v>
       </c>
@@ -37662,7 +37662,7 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>2986</v>
       </c>
@@ -37688,7 +37688,7 @@
         <v>6515</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>2992</v>
       </c>
@@ -37714,7 +37714,7 @@
         <v>6517</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>2997</v>
       </c>
@@ -37740,7 +37740,7 @@
         <v>6519</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>3003</v>
       </c>
@@ -37766,7 +37766,7 @@
         <v>6521</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>3009</v>
       </c>
@@ -37792,7 +37792,7 @@
         <v>6523</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>3015</v>
       </c>
@@ -37818,7 +37818,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>3021</v>
       </c>
@@ -37844,7 +37844,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>3027</v>
       </c>
@@ -37870,7 +37870,7 @@
         <v>6529</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>3033</v>
       </c>
@@ -37896,7 +37896,7 @@
         <v>6531</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>3039</v>
       </c>
@@ -37922,7 +37922,7 @@
         <v>6533</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>3045</v>
       </c>
@@ -37948,7 +37948,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>3051</v>
       </c>
@@ -37974,7 +37974,7 @@
         <v>6537</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>3057</v>
       </c>
@@ -38000,7 +38000,7 @@
         <v>6539</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>3063</v>
       </c>
@@ -38026,7 +38026,7 @@
         <v>6541</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>3068</v>
       </c>
@@ -38052,7 +38052,7 @@
         <v>6543</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>3074</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>6545</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>3080</v>
       </c>
@@ -38104,7 +38104,7 @@
         <v>6547</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>3086</v>
       </c>
@@ -38130,7 +38130,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>3092</v>
       </c>
@@ -38156,7 +38156,7 @@
         <v>6551</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>3098</v>
       </c>
@@ -38182,7 +38182,7 @@
         <v>6553</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>3104</v>
       </c>
@@ -38208,7 +38208,7 @@
         <v>6555</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>3109</v>
       </c>
@@ -38234,7 +38234,7 @@
         <v>6557</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>3115</v>
       </c>
@@ -38260,7 +38260,7 @@
         <v>6559</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>3121</v>
       </c>
@@ -38286,7 +38286,7 @@
         <v>6561</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>3127</v>
       </c>
@@ -38312,7 +38312,7 @@
         <v>6563</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>3133</v>
       </c>
@@ -38338,7 +38338,7 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>3139</v>
       </c>
@@ -38364,7 +38364,7 @@
         <v>6567</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>3145</v>
       </c>
@@ -38390,7 +38390,7 @@
         <v>6569</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>3151</v>
       </c>
@@ -38416,7 +38416,7 @@
         <v>6571</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>3157</v>
       </c>
@@ -38442,7 +38442,7 @@
         <v>6573</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>3163</v>
       </c>
@@ -38468,7 +38468,7 @@
         <v>6575</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>3169</v>
       </c>
@@ -38494,7 +38494,7 @@
         <v>6577</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>3174</v>
       </c>
@@ -38520,7 +38520,7 @@
         <v>6579</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>3180</v>
       </c>
@@ -38546,7 +38546,7 @@
         <v>6581</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>3186</v>
       </c>
@@ -38572,7 +38572,7 @@
         <v>6583</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>3192</v>
       </c>
@@ -38598,7 +38598,7 @@
         <v>6585</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>3197</v>
       </c>
@@ -38624,7 +38624,7 @@
         <v>6587</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>3203</v>
       </c>
@@ -38650,7 +38650,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>3209</v>
       </c>
@@ -38676,7 +38676,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>3214</v>
       </c>
@@ -38702,7 +38702,7 @@
         <v>6593</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>3220</v>
       </c>
@@ -38728,7 +38728,7 @@
         <v>6595</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>3226</v>
       </c>
@@ -38754,7 +38754,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>3232</v>
       </c>
@@ -38780,7 +38780,7 @@
         <v>6599</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>3238</v>
       </c>
@@ -38806,7 +38806,7 @@
         <v>6601</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>3244</v>
       </c>
@@ -38832,7 +38832,7 @@
         <v>6603</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>3250</v>
       </c>
@@ -38858,7 +38858,7 @@
         <v>6605</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>3256</v>
       </c>
@@ -38884,7 +38884,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>3262</v>
       </c>
@@ -38910,7 +38910,7 @@
         <v>6609</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>3268</v>
       </c>
@@ -38936,7 +38936,7 @@
         <v>6611</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>3274</v>
       </c>
@@ -38962,7 +38962,7 @@
         <v>6613</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>3279</v>
       </c>
@@ -38988,7 +38988,7 @@
         <v>6615</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>3285</v>
       </c>
@@ -39014,7 +39014,7 @@
         <v>6617</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>3291</v>
       </c>
@@ -39040,7 +39040,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>3297</v>
       </c>
@@ -39066,7 +39066,7 @@
         <v>6621</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>3303</v>
       </c>
@@ -39092,7 +39092,7 @@
         <v>6623</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>3309</v>
       </c>
@@ -39118,7 +39118,7 @@
         <v>6625</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>3315</v>
       </c>
@@ -39144,7 +39144,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>3320</v>
       </c>
@@ -39170,7 +39170,7 @@
         <v>6629</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>3326</v>
       </c>
@@ -39196,7 +39196,7 @@
         <v>6631</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>3332</v>
       </c>
@@ -39222,7 +39222,7 @@
         <v>6633</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>3338</v>
       </c>
@@ -39248,7 +39248,7 @@
         <v>6635</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>3343</v>
       </c>
@@ -39274,7 +39274,7 @@
         <v>6637</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>3349</v>
       </c>
@@ -39300,7 +39300,7 @@
         <v>6639</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>3355</v>
       </c>
@@ -39326,7 +39326,7 @@
         <v>6641</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>3360</v>
       </c>
@@ -39352,7 +39352,7 @@
         <v>6643</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>3366</v>
       </c>
@@ -39378,7 +39378,7 @@
         <v>6645</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>3372</v>
       </c>
@@ -39404,7 +39404,7 @@
         <v>6647</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>3378</v>
       </c>
@@ -39430,7 +39430,7 @@
         <v>6649</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>3384</v>
       </c>
@@ -39456,7 +39456,7 @@
         <v>6651</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>3390</v>
       </c>
@@ -39482,7 +39482,7 @@
         <v>6653</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>3395</v>
       </c>
@@ -39508,7 +39508,7 @@
         <v>6655</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>3401</v>
       </c>
@@ -39534,7 +39534,7 @@
         <v>6657</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>3407</v>
       </c>
@@ -39560,7 +39560,7 @@
         <v>6659</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>3413</v>
       </c>
@@ -39586,7 +39586,7 @@
         <v>6661</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>3419</v>
       </c>
@@ -39612,7 +39612,7 @@
         <v>6663</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>3425</v>
       </c>
@@ -39638,7 +39638,7 @@
         <v>6665</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>3430</v>
       </c>
@@ -39664,7 +39664,7 @@
         <v>6667</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>3435</v>
       </c>
@@ -39690,7 +39690,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>3441</v>
       </c>
@@ -39716,7 +39716,7 @@
         <v>6671</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>3447</v>
       </c>
@@ -39742,7 +39742,7 @@
         <v>6673</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>3453</v>
       </c>
@@ -39768,7 +39768,7 @@
         <v>6675</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>3459</v>
       </c>
@@ -39794,7 +39794,7 @@
         <v>6677</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>3465</v>
       </c>
@@ -39820,7 +39820,7 @@
         <v>6679</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>3470</v>
       </c>
@@ -39846,7 +39846,7 @@
         <v>6681</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>3475</v>
       </c>
@@ -39872,7 +39872,7 @@
         <v>6683</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>3481</v>
       </c>
@@ -39898,7 +39898,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>3487</v>
       </c>
@@ -39924,7 +39924,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>3493</v>
       </c>
@@ -39950,7 +39950,7 @@
         <v>6689</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>3499</v>
       </c>
@@ -39976,7 +39976,7 @@
         <v>6691</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>3505</v>
       </c>
@@ -40002,7 +40002,7 @@
         <v>6693</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>3511</v>
       </c>
@@ -40028,7 +40028,7 @@
         <v>6695</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>3517</v>
       </c>
@@ -40054,7 +40054,7 @@
         <v>6697</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>3522</v>
       </c>
@@ -40080,7 +40080,7 @@
         <v>6699</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>3527</v>
       </c>
@@ -40106,7 +40106,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>3533</v>
       </c>
@@ -40132,7 +40132,7 @@
         <v>6703</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>3538</v>
       </c>
@@ -40158,7 +40158,7 @@
         <v>6705</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>3543</v>
       </c>
@@ -40184,7 +40184,7 @@
         <v>6707</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>3549</v>
       </c>
@@ -40210,7 +40210,7 @@
         <v>6709</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>3554</v>
       </c>
@@ -40236,7 +40236,7 @@
         <v>6711</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>3560</v>
       </c>
@@ -40262,7 +40262,7 @@
         <v>6713</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>3566</v>
       </c>
@@ -40288,7 +40288,7 @@
         <v>6715</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>3572</v>
       </c>
@@ -40314,7 +40314,7 @@
         <v>6717</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>3576</v>
       </c>
@@ -40340,7 +40340,7 @@
         <v>6719</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>3582</v>
       </c>
@@ -40366,7 +40366,7 @@
         <v>6721</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>3588</v>
       </c>
@@ -40392,7 +40392,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>3594</v>
       </c>
@@ -40418,7 +40418,7 @@
         <v>6725</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>3599</v>
       </c>
@@ -40444,7 +40444,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>3605</v>
       </c>
@@ -40470,7 +40470,7 @@
         <v>6729</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>3609</v>
       </c>
@@ -40496,7 +40496,7 @@
         <v>6731</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>3615</v>
       </c>
@@ -40522,7 +40522,7 @@
         <v>6733</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>3621</v>
       </c>
@@ -40548,7 +40548,7 @@
         <v>6735</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>3625</v>
       </c>
@@ -40574,7 +40574,7 @@
         <v>6737</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>3631</v>
       </c>
@@ -40600,7 +40600,7 @@
         <v>6739</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>3636</v>
       </c>
@@ -40626,7 +40626,7 @@
         <v>6741</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>3640</v>
       </c>
@@ -40652,7 +40652,7 @@
         <v>6743</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>3645</v>
       </c>
@@ -40678,7 +40678,7 @@
         <v>6745</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>3651</v>
       </c>
@@ -40704,7 +40704,7 @@
         <v>6747</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>3655</v>
       </c>
@@ -40730,7 +40730,7 @@
         <v>6749</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>3660</v>
       </c>
@@ -40756,7 +40756,7 @@
         <v>6751</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>3665</v>
       </c>
@@ -40782,7 +40782,7 @@
         <v>6753</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>3668</v>
       </c>
@@ -40808,7 +40808,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>3673</v>
       </c>
@@ -40834,7 +40834,7 @@
         <v>6757</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>3678</v>
       </c>
@@ -40860,7 +40860,7 @@
         <v>6759</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>3682</v>
       </c>
@@ -40886,7 +40886,7 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>3687</v>
       </c>
@@ -40912,7 +40912,7 @@
         <v>6763</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>3693</v>
       </c>
@@ -40938,7 +40938,7 @@
         <v>6765</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>3699</v>
       </c>
@@ -40964,7 +40964,7 @@
         <v>6767</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>3704</v>
       </c>
@@ -40990,7 +40990,7 @@
         <v>6769</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>3710</v>
       </c>
@@ -41016,7 +41016,7 @@
         <v>6771</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>3716</v>
       </c>
@@ -41042,7 +41042,7 @@
         <v>6773</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>3720</v>
       </c>
@@ -41068,7 +41068,7 @@
         <v>6775</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>3726</v>
       </c>
@@ -41094,7 +41094,7 @@
         <v>6777</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>3732</v>
       </c>
@@ -41120,7 +41120,7 @@
         <v>6779</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>3738</v>
       </c>
@@ -41146,7 +41146,7 @@
         <v>6781</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>3743</v>
       </c>
@@ -41172,7 +41172,7 @@
         <v>6783</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>3749</v>
       </c>
@@ -41198,7 +41198,7 @@
         <v>6785</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>3753</v>
       </c>
@@ -41224,7 +41224,7 @@
         <v>6787</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>3759</v>
       </c>
@@ -41250,7 +41250,7 @@
         <v>6789</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>3765</v>
       </c>
@@ -41276,7 +41276,7 @@
         <v>6791</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>3771</v>
       </c>
@@ -41302,7 +41302,7 @@
         <v>6793</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>3776</v>
       </c>
@@ -41328,7 +41328,7 @@
         <v>6795</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>3782</v>
       </c>
@@ -41354,7 +41354,7 @@
         <v>6797</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>3788</v>
       </c>
@@ -41380,7 +41380,7 @@
         <v>6799</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>3793</v>
       </c>
@@ -41406,7 +41406,7 @@
         <v>6801</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>3799</v>
       </c>
@@ -41432,7 +41432,7 @@
         <v>6803</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>3803</v>
       </c>
@@ -41458,7 +41458,7 @@
         <v>6805</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>3809</v>
       </c>
@@ -41484,7 +41484,7 @@
         <v>6807</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>3815</v>
       </c>
@@ -41510,7 +41510,7 @@
         <v>6809</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>3820</v>
       </c>
@@ -41536,7 +41536,7 @@
         <v>6811</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>3826</v>
       </c>
@@ -41562,7 +41562,7 @@
         <v>6813</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>3831</v>
       </c>
@@ -41588,7 +41588,7 @@
         <v>6815</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>3837</v>
       </c>
@@ -41614,7 +41614,7 @@
         <v>6817</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>3843</v>
       </c>
@@ -41640,7 +41640,7 @@
         <v>6819</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>3849</v>
       </c>
@@ -41666,7 +41666,7 @@
         <v>6821</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>3855</v>
       </c>
@@ -41692,7 +41692,7 @@
         <v>6823</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>3861</v>
       </c>
@@ -41718,7 +41718,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>3867</v>
       </c>
@@ -41744,7 +41744,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>3873</v>
       </c>
@@ -41770,7 +41770,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>3879</v>
       </c>
@@ -41796,7 +41796,7 @@
         <v>6831</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>3883</v>
       </c>
@@ -41822,7 +41822,7 @@
         <v>6833</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>3889</v>
       </c>
@@ -41848,7 +41848,7 @@
         <v>6835</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>3895</v>
       </c>
@@ -41874,7 +41874,7 @@
         <v>6837</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>3901</v>
       </c>
@@ -41900,7 +41900,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>3907</v>
       </c>
@@ -41926,7 +41926,7 @@
         <v>6841</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>3913</v>
       </c>
@@ -41952,7 +41952,7 @@
         <v>6843</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>3919</v>
       </c>
@@ -41978,7 +41978,7 @@
         <v>6845</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>3924</v>
       </c>
@@ -42004,7 +42004,7 @@
         <v>6847</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>3930</v>
       </c>
@@ -42030,7 +42030,7 @@
         <v>6849</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>3934</v>
       </c>
@@ -42056,7 +42056,7 @@
         <v>6851</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>3940</v>
       </c>
@@ -42082,7 +42082,7 @@
         <v>6853</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>3946</v>
       </c>
@@ -42108,7 +42108,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>3951</v>
       </c>
@@ -42134,7 +42134,7 @@
         <v>6857</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>3957</v>
       </c>
@@ -42160,7 +42160,7 @@
         <v>6859</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>3962</v>
       </c>
@@ -42186,7 +42186,7 @@
         <v>6861</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>3967</v>
       </c>
@@ -42212,7 +42212,7 @@
         <v>6863</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>3972</v>
       </c>
@@ -42238,7 +42238,7 @@
         <v>6865</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>3978</v>
       </c>
@@ -42264,7 +42264,7 @@
         <v>6867</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>3984</v>
       </c>
@@ -42290,7 +42290,7 @@
         <v>6869</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>3988</v>
       </c>
@@ -42316,7 +42316,7 @@
         <v>6871</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>3994</v>
       </c>
@@ -42342,7 +42342,7 @@
         <v>6873</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>3998</v>
       </c>
@@ -42368,7 +42368,7 @@
         <v>6875</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>4003</v>
       </c>
@@ -42394,7 +42394,7 @@
         <v>6877</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>4008</v>
       </c>
@@ -42420,7 +42420,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>4014</v>
       </c>
@@ -42446,7 +42446,7 @@
         <v>6881</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>4020</v>
       </c>
@@ -42472,7 +42472,7 @@
         <v>6883</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>4026</v>
       </c>
@@ -42498,7 +42498,7 @@
         <v>6885</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>4032</v>
       </c>
@@ -42524,7 +42524,7 @@
         <v>6887</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>4038</v>
       </c>
@@ -42550,7 +42550,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>4044</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>4049</v>
       </c>
@@ -42602,7 +42602,7 @@
         <v>6893</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>4055</v>
       </c>
@@ -42628,7 +42628,7 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>4060</v>
       </c>
@@ -42654,7 +42654,7 @@
         <v>6897</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>4065</v>
       </c>
@@ -42680,7 +42680,7 @@
         <v>6899</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>4070</v>
       </c>
@@ -42706,7 +42706,7 @@
         <v>6901</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>4076</v>
       </c>
@@ -42732,7 +42732,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>4081</v>
       </c>
@@ -42758,7 +42758,7 @@
         <v>6905</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>4086</v>
       </c>
@@ -42784,7 +42784,7 @@
         <v>6907</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>4090</v>
       </c>
@@ -42810,7 +42810,7 @@
         <v>6909</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>4095</v>
       </c>
@@ -42836,7 +42836,7 @@
         <v>6911</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>4101</v>
       </c>
@@ -42862,7 +42862,7 @@
         <v>6913</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>4106</v>
       </c>
@@ -42888,7 +42888,7 @@
         <v>6915</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>4112</v>
       </c>
@@ -42914,7 +42914,7 @@
         <v>6917</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>4118</v>
       </c>
@@ -42940,7 +42940,7 @@
         <v>6919</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>4123</v>
       </c>
@@ -42966,7 +42966,7 @@
         <v>6921</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>4128</v>
       </c>
@@ -42992,7 +42992,7 @@
         <v>6923</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>4134</v>
       </c>
@@ -43018,7 +43018,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>4139</v>
       </c>
@@ -43044,7 +43044,7 @@
         <v>6927</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>4144</v>
       </c>
@@ -43070,7 +43070,7 @@
         <v>6929</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>4148</v>
       </c>
@@ -43096,7 +43096,7 @@
         <v>6931</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>4153</v>
       </c>
@@ -43122,7 +43122,7 @@
         <v>6933</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>4158</v>
       </c>
@@ -43148,7 +43148,7 @@
         <v>6935</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>4164</v>
       </c>
@@ -43174,7 +43174,7 @@
         <v>6937</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>4170</v>
       </c>
@@ -43200,7 +43200,7 @@
         <v>6939</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>4176</v>
       </c>
@@ -43226,7 +43226,7 @@
         <v>6941</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>4181</v>
       </c>
@@ -43252,7 +43252,7 @@
         <v>6943</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>4186</v>
       </c>
@@ -43278,7 +43278,7 @@
         <v>6945</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>4190</v>
       </c>
@@ -43304,7 +43304,7 @@
         <v>6947</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>4196</v>
       </c>
@@ -43330,7 +43330,7 @@
         <v>6949</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>4202</v>
       </c>
@@ -43356,7 +43356,7 @@
         <v>6951</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>4206</v>
       </c>
@@ -43382,7 +43382,7 @@
         <v>6953</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>4211</v>
       </c>
@@ -43408,7 +43408,7 @@
         <v>6955</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>4216</v>
       </c>
@@ -43434,7 +43434,7 @@
         <v>6957</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>4221</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>6959</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>4227</v>
       </c>
@@ -43486,7 +43486,7 @@
         <v>6961</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>4233</v>
       </c>
@@ -43512,7 +43512,7 @@
         <v>6963</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>4238</v>
       </c>
@@ -43538,7 +43538,7 @@
         <v>6965</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>4244</v>
       </c>
@@ -43564,7 +43564,7 @@
         <v>6967</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>4248</v>
       </c>
@@ -43590,7 +43590,7 @@
         <v>6969</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>4252</v>
       </c>
@@ -43616,7 +43616,7 @@
         <v>6971</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>4258</v>
       </c>
@@ -43642,7 +43642,7 @@
         <v>6973</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>4263</v>
       </c>
@@ -43668,7 +43668,7 @@
         <v>6975</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>4268</v>
       </c>
@@ -43694,7 +43694,7 @@
         <v>6977</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>4274</v>
       </c>
@@ -43720,7 +43720,7 @@
         <v>6979</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>4280</v>
       </c>
@@ -43746,7 +43746,7 @@
         <v>6981</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>4286</v>
       </c>
@@ -43772,7 +43772,7 @@
         <v>6983</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>4292</v>
       </c>
@@ -43798,7 +43798,7 @@
         <v>6985</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>4298</v>
       </c>
@@ -43824,7 +43824,7 @@
         <v>6987</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>4304</v>
       </c>
@@ -43850,7 +43850,7 @@
         <v>6989</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>4310</v>
       </c>
@@ -43876,7 +43876,7 @@
         <v>6991</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>4316</v>
       </c>
@@ -43902,7 +43902,7 @@
         <v>6993</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>4322</v>
       </c>
@@ -43928,7 +43928,7 @@
         <v>6995</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>4328</v>
       </c>
@@ -43954,7 +43954,7 @@
         <v>6997</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>4334</v>
       </c>
@@ -43980,7 +43980,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>4340</v>
       </c>
@@ -44006,7 +44006,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>4345</v>
       </c>
@@ -44032,7 +44032,7 @@
         <v>7003</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>4351</v>
       </c>
@@ -44058,7 +44058,7 @@
         <v>7005</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>4357</v>
       </c>
@@ -44084,7 +44084,7 @@
         <v>7007</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>4362</v>
       </c>
@@ -44110,7 +44110,7 @@
         <v>7009</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>4367</v>
       </c>
@@ -44136,7 +44136,7 @@
         <v>7011</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>4372</v>
       </c>
@@ -44162,7 +44162,7 @@
         <v>7013</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>4378</v>
       </c>
@@ -44188,7 +44188,7 @@
         <v>7015</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>4384</v>
       </c>
@@ -44214,7 +44214,7 @@
         <v>7017</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>4390</v>
       </c>
@@ -44240,7 +44240,7 @@
         <v>7019</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>4396</v>
       </c>
@@ -44266,7 +44266,7 @@
         <v>7021</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>4401</v>
       </c>
@@ -44292,7 +44292,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>4407</v>
       </c>
@@ -44318,7 +44318,7 @@
         <v>7025</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>4413</v>
       </c>
@@ -44344,7 +44344,7 @@
         <v>7027</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>4418</v>
       </c>
@@ -44370,7 +44370,7 @@
         <v>7029</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>4424</v>
       </c>
@@ -44396,7 +44396,7 @@
         <v>7031</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>4430</v>
       </c>
@@ -44422,7 +44422,7 @@
         <v>7033</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>4436</v>
       </c>
@@ -44448,7 +44448,7 @@
         <v>7035</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>4441</v>
       </c>
@@ -44474,7 +44474,7 @@
         <v>7037</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>4447</v>
       </c>
@@ -44500,7 +44500,7 @@
         <v>7039</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>4453</v>
       </c>
@@ -44526,7 +44526,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>4459</v>
       </c>
@@ -44552,7 +44552,7 @@
         <v>7043</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>4465</v>
       </c>
@@ -44578,7 +44578,7 @@
         <v>7045</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>4471</v>
       </c>
@@ -44604,7 +44604,7 @@
         <v>7047</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>4476</v>
       </c>
@@ -44630,7 +44630,7 @@
         <v>7049</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>4481</v>
       </c>
@@ -44656,7 +44656,7 @@
         <v>7051</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>4486</v>
       </c>
@@ -44682,7 +44682,7 @@
         <v>7053</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>4492</v>
       </c>
@@ -44708,7 +44708,7 @@
         <v>7055</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>4498</v>
       </c>
@@ -44734,7 +44734,7 @@
         <v>7057</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>4504</v>
       </c>
@@ -44760,7 +44760,7 @@
         <v>7059</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>4509</v>
       </c>
@@ -44786,7 +44786,7 @@
         <v>7061</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>4515</v>
       </c>
@@ -44812,7 +44812,7 @@
         <v>7063</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>4521</v>
       </c>
@@ -44838,7 +44838,7 @@
         <v>7065</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>4527</v>
       </c>
@@ -44864,7 +44864,7 @@
         <v>7067</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>4532</v>
       </c>
@@ -44890,7 +44890,7 @@
         <v>7069</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>4537</v>
       </c>
@@ -44916,7 +44916,7 @@
         <v>7071</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>4542</v>
       </c>
@@ -44942,7 +44942,7 @@
         <v>7073</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>4547</v>
       </c>
@@ -44968,7 +44968,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>4553</v>
       </c>
@@ -44994,7 +44994,7 @@
         <v>7077</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>4559</v>
       </c>
@@ -45020,7 +45020,7 @@
         <v>7079</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>4565</v>
       </c>
@@ -45046,7 +45046,7 @@
         <v>7081</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>4571</v>
       </c>
@@ -45072,7 +45072,7 @@
         <v>7083</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>4576</v>
       </c>
@@ -45098,7 +45098,7 @@
         <v>7085</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>4582</v>
       </c>
@@ -45124,7 +45124,7 @@
         <v>7087</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>4588</v>
       </c>
@@ -45150,7 +45150,7 @@
         <v>7089</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>4594</v>
       </c>
@@ -45176,7 +45176,7 @@
         <v>7091</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>4599</v>
       </c>
@@ -45202,7 +45202,7 @@
         <v>7093</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>4604</v>
       </c>
@@ -45228,7 +45228,7 @@
         <v>7095</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>4610</v>
       </c>
@@ -45254,7 +45254,7 @@
         <v>7097</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>4616</v>
       </c>
@@ -45280,7 +45280,7 @@
         <v>7099</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>4622</v>
       </c>
@@ -45306,7 +45306,7 @@
         <v>7101</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>4628</v>
       </c>
@@ -45332,7 +45332,7 @@
         <v>7103</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>4634</v>
       </c>
@@ -45358,7 +45358,7 @@
         <v>7105</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>4640</v>
       </c>
@@ -45384,7 +45384,7 @@
         <v>7107</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>4645</v>
       </c>
@@ -45410,7 +45410,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>4651</v>
       </c>
@@ -45436,7 +45436,7 @@
         <v>7111</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>4656</v>
       </c>
@@ -45462,7 +45462,7 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>4662</v>
       </c>
@@ -45488,7 +45488,7 @@
         <v>7115</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>4667</v>
       </c>
@@ -45514,7 +45514,7 @@
         <v>7117</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>4672</v>
       </c>
@@ -45540,7 +45540,7 @@
         <v>7119</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>4678</v>
       </c>
@@ -45566,7 +45566,7 @@
         <v>7121</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>4684</v>
       </c>
@@ -45592,7 +45592,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>4689</v>
       </c>
@@ -45618,7 +45618,7 @@
         <v>7125</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>4695</v>
       </c>
@@ -45644,7 +45644,7 @@
         <v>7127</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>4701</v>
       </c>
@@ -45670,7 +45670,7 @@
         <v>7129</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>4706</v>
       </c>
@@ -45696,7 +45696,7 @@
         <v>7131</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>4712</v>
       </c>
@@ -45722,7 +45722,7 @@
         <v>7133</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>4718</v>
       </c>
@@ -45748,7 +45748,7 @@
         <v>7135</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>4724</v>
       </c>
@@ -45774,7 +45774,7 @@
         <v>7137</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>4729</v>
       </c>
@@ -45800,7 +45800,7 @@
         <v>7139</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>4734</v>
       </c>
@@ -45826,7 +45826,7 @@
         <v>7141</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>4739</v>
       </c>
@@ -45852,7 +45852,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>4745</v>
       </c>
@@ -45878,7 +45878,7 @@
         <v>7145</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>4751</v>
       </c>
@@ -45904,7 +45904,7 @@
         <v>7147</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>4757</v>
       </c>
@@ -45930,7 +45930,7 @@
         <v>7149</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>4763</v>
       </c>
@@ -45956,7 +45956,7 @@
         <v>7151</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>4769</v>
       </c>
@@ -45982,7 +45982,7 @@
         <v>7153</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>4775</v>
       </c>
@@ -46008,7 +46008,7 @@
         <v>7155</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>4781</v>
       </c>
@@ -46034,7 +46034,7 @@
         <v>7157</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>4785</v>
       </c>
@@ -46060,7 +46060,7 @@
         <v>7159</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>4791</v>
       </c>
@@ -46086,7 +46086,7 @@
         <v>7161</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>4797</v>
       </c>
@@ -46112,7 +46112,7 @@
         <v>7163</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>4803</v>
       </c>
@@ -46138,7 +46138,7 @@
         <v>7165</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>4809</v>
       </c>
@@ -46164,7 +46164,7 @@
         <v>7167</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>4814</v>
       </c>
@@ -46190,7 +46190,7 @@
         <v>7169</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>4820</v>
       </c>
@@ -46216,7 +46216,7 @@
         <v>7171</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>4826</v>
       </c>
@@ -46242,7 +46242,7 @@
         <v>7173</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>4832</v>
       </c>
@@ -46268,7 +46268,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>4838</v>
       </c>
@@ -46294,7 +46294,7 @@
         <v>7177</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>4842</v>
       </c>
@@ -46320,7 +46320,7 @@
         <v>7179</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>4848</v>
       </c>
@@ -46346,7 +46346,7 @@
         <v>7181</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>4854</v>
       </c>
@@ -46372,7 +46372,7 @@
         <v>7183</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>4860</v>
       </c>
@@ -46398,7 +46398,7 @@
         <v>7185</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>4866</v>
       </c>
@@ -46424,7 +46424,7 @@
         <v>7187</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>4872</v>
       </c>
@@ -46450,7 +46450,7 @@
         <v>7189</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>4878</v>
       </c>
@@ -46476,7 +46476,7 @@
         <v>7191</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>4884</v>
       </c>
@@ -46502,7 +46502,7 @@
         <v>7193</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>4889</v>
       </c>
@@ -46528,7 +46528,7 @@
         <v>7195</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>4895</v>
       </c>
@@ -46554,7 +46554,7 @@
         <v>7197</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>4900</v>
       </c>
@@ -46580,7 +46580,7 @@
         <v>7199</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>4905</v>
       </c>
@@ -46606,7 +46606,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>4910</v>
       </c>
@@ -46632,7 +46632,7 @@
         <v>7203</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>4915</v>
       </c>
@@ -46658,7 +46658,7 @@
         <v>7205</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>4921</v>
       </c>
@@ -46684,7 +46684,7 @@
         <v>7207</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>4927</v>
       </c>
@@ -46710,7 +46710,7 @@
         <v>7209</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>4932</v>
       </c>
@@ -46736,7 +46736,7 @@
         <v>7211</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>4938</v>
       </c>
@@ -46762,7 +46762,7 @@
         <v>7213</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>4943</v>
       </c>
@@ -46788,7 +46788,7 @@
         <v>7215</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>4948</v>
       </c>
@@ -46814,7 +46814,7 @@
         <v>7217</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>4952</v>
       </c>
@@ -46840,7 +46840,7 @@
         <v>7219</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>4958</v>
       </c>
@@ -46866,7 +46866,7 @@
         <v>7221</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>4962</v>
       </c>
@@ -46892,7 +46892,7 @@
         <v>7223</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>4968</v>
       </c>
@@ -46918,7 +46918,7 @@
         <v>7225</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>4974</v>
       </c>
@@ -46944,7 +46944,7 @@
         <v>7227</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>4979</v>
       </c>
@@ -46970,7 +46970,7 @@
         <v>7229</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>4985</v>
       </c>
@@ -46996,7 +46996,7 @@
         <v>7231</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>4991</v>
       </c>
@@ -47022,7 +47022,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>4996</v>
       </c>
@@ -47048,7 +47048,7 @@
         <v>7235</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>5002</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>7237</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>5007</v>
       </c>
@@ -47100,7 +47100,7 @@
         <v>7239</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>5012</v>
       </c>
@@ -47126,7 +47126,7 @@
         <v>7241</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>5018</v>
       </c>
@@ -47152,7 +47152,7 @@
         <v>7243</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>5024</v>
       </c>
@@ -47178,7 +47178,7 @@
         <v>7245</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>5029</v>
       </c>
@@ -47204,7 +47204,7 @@
         <v>7247</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>5035</v>
       </c>
@@ -47230,7 +47230,7 @@
         <v>7249</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>5041</v>
       </c>
@@ -47256,7 +47256,7 @@
         <v>7251</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>5046</v>
       </c>
@@ -47282,7 +47282,7 @@
         <v>7253</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>5051</v>
       </c>
@@ -47308,7 +47308,7 @@
         <v>7255</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>5057</v>
       </c>
@@ -47334,7 +47334,7 @@
         <v>7257</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>5062</v>
       </c>
@@ -47360,7 +47360,7 @@
         <v>7259</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>5068</v>
       </c>
@@ -47386,7 +47386,7 @@
         <v>7261</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>5074</v>
       </c>
@@ -47412,7 +47412,7 @@
         <v>7263</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>5079</v>
       </c>
@@ -47438,7 +47438,7 @@
         <v>7265</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>5084</v>
       </c>
@@ -47464,7 +47464,7 @@
         <v>7267</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>5090</v>
       </c>
@@ -47490,7 +47490,7 @@
         <v>7269</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>5095</v>
       </c>
@@ -47516,7 +47516,7 @@
         <v>7271</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>5101</v>
       </c>
@@ -47542,7 +47542,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>5107</v>
       </c>
@@ -47568,7 +47568,7 @@
         <v>7275</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>5113</v>
       </c>
@@ -47594,7 +47594,7 @@
         <v>7277</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>5119</v>
       </c>
@@ -47620,7 +47620,7 @@
         <v>7279</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>5125</v>
       </c>
@@ -47646,7 +47646,7 @@
         <v>7281</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>5131</v>
       </c>
@@ -47672,7 +47672,7 @@
         <v>7283</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>5137</v>
       </c>
@@ -47698,7 +47698,7 @@
         <v>7285</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>5143</v>
       </c>
@@ -47724,7 +47724,7 @@
         <v>7287</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>5149</v>
       </c>
@@ -47750,7 +47750,7 @@
         <v>7289</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>5154</v>
       </c>
@@ -47776,7 +47776,7 @@
         <v>7291</v>
       </c>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>5160</v>
       </c>
@@ -47802,7 +47802,7 @@
         <v>7293</v>
       </c>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>5166</v>
       </c>
@@ -47828,7 +47828,7 @@
         <v>7295</v>
       </c>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>5172</v>
       </c>
@@ -47854,7 +47854,7 @@
         <v>7297</v>
       </c>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>5177</v>
       </c>
@@ -47880,7 +47880,7 @@
         <v>7299</v>
       </c>
     </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>5183</v>
       </c>
@@ -47906,7 +47906,7 @@
         <v>7301</v>
       </c>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>5189</v>
       </c>
@@ -47932,7 +47932,7 @@
         <v>7303</v>
       </c>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>5195</v>
       </c>
@@ -47958,7 +47958,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>5201</v>
       </c>
@@ -47984,7 +47984,7 @@
         <v>7307</v>
       </c>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>5207</v>
       </c>
@@ -48010,7 +48010,7 @@
         <v>7309</v>
       </c>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>5213</v>
       </c>
@@ -48036,7 +48036,7 @@
         <v>7311</v>
       </c>
     </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>5219</v>
       </c>
@@ -48062,7 +48062,7 @@
         <v>7313</v>
       </c>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>5224</v>
       </c>
@@ -48088,7 +48088,7 @@
         <v>7315</v>
       </c>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>5230</v>
       </c>
@@ -48114,7 +48114,7 @@
         <v>7317</v>
       </c>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>5235</v>
       </c>
@@ -48140,7 +48140,7 @@
         <v>7319</v>
       </c>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>5241</v>
       </c>
@@ -48166,7 +48166,7 @@
         <v>7321</v>
       </c>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>5246</v>
       </c>
@@ -48192,7 +48192,7 @@
         <v>7323</v>
       </c>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>5252</v>
       </c>
@@ -48218,7 +48218,7 @@
         <v>7325</v>
       </c>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>5258</v>
       </c>
@@ -48244,7 +48244,7 @@
         <v>7327</v>
       </c>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>5264</v>
       </c>
@@ -48270,7 +48270,7 @@
         <v>7329</v>
       </c>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
         <v>5270</v>
       </c>
@@ -48296,7 +48296,7 @@
         <v>7331</v>
       </c>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
         <v>5275</v>
       </c>
@@ -48322,7 +48322,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>5281</v>
       </c>
@@ -48348,7 +48348,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>5287</v>
       </c>
@@ -48374,7 +48374,7 @@
         <v>7337</v>
       </c>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>5292</v>
       </c>
@@ -48400,7 +48400,7 @@
         <v>7339</v>
       </c>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>5297</v>
       </c>
@@ -48426,7 +48426,7 @@
         <v>7341</v>
       </c>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>5303</v>
       </c>
@@ -48452,7 +48452,7 @@
         <v>7343</v>
       </c>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
         <v>5309</v>
       </c>
@@ -48478,7 +48478,7 @@
         <v>7345</v>
       </c>
     </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
         <v>5314</v>
       </c>
@@ -48504,7 +48504,7 @@
         <v>7347</v>
       </c>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
         <v>5319</v>
       </c>
@@ -48530,7 +48530,7 @@
         <v>7349</v>
       </c>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>5324</v>
       </c>
@@ -48556,7 +48556,7 @@
         <v>7351</v>
       </c>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
         <v>5330</v>
       </c>
@@ -48582,7 +48582,7 @@
         <v>7353</v>
       </c>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
         <v>5335</v>
       </c>
@@ -48608,7 +48608,7 @@
         <v>7355</v>
       </c>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
         <v>5341</v>
       </c>
@@ -48634,7 +48634,7 @@
         <v>7357</v>
       </c>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
         <v>5347</v>
       </c>
@@ -48660,7 +48660,7 @@
         <v>7359</v>
       </c>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>5352</v>
       </c>
@@ -48686,7 +48686,7 @@
         <v>7361</v>
       </c>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
         <v>5357</v>
       </c>
@@ -48712,7 +48712,7 @@
         <v>7363</v>
       </c>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>5363</v>
       </c>
@@ -48738,7 +48738,7 @@
         <v>7365</v>
       </c>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
         <v>5369</v>
       </c>
@@ -48764,7 +48764,7 @@
         <v>7367</v>
       </c>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
         <v>5373</v>
       </c>
@@ -48790,7 +48790,7 @@
         <v>7369</v>
       </c>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>5379</v>
       </c>
@@ -48816,7 +48816,7 @@
         <v>7371</v>
       </c>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
         <v>5385</v>
       </c>
@@ -48842,7 +48842,7 @@
         <v>7373</v>
       </c>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
         <v>5390</v>
       </c>
@@ -48868,7 +48868,7 @@
         <v>7375</v>
       </c>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>5396</v>
       </c>
@@ -48894,7 +48894,7 @@
         <v>7377</v>
       </c>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>5402</v>
       </c>
@@ -48920,7 +48920,7 @@
         <v>7379</v>
       </c>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>5407</v>
       </c>
@@ -48946,7 +48946,7 @@
         <v>7381</v>
       </c>
     </row>
-    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>5412</v>
       </c>
@@ -48972,7 +48972,7 @@
         <v>7383</v>
       </c>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>5418</v>
       </c>
@@ -48998,7 +48998,7 @@
         <v>7385</v>
       </c>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>5424</v>
       </c>
@@ -49024,7 +49024,7 @@
         <v>7387</v>
       </c>
     </row>
-    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>5430</v>
       </c>
@@ -49050,7 +49050,7 @@
         <v>7389</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>5436</v>
       </c>
@@ -49076,7 +49076,7 @@
         <v>7391</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>5442</v>
       </c>
@@ -49102,7 +49102,7 @@
         <v>7393</v>
       </c>
     </row>
-    <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
         <v>5448</v>
       </c>
